--- a/docs/QuixBox_RF266_BOM.xlsx
+++ b/docs/QuixBox_RF266_BOM.xlsx
@@ -809,7 +809,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
